--- a/Gantt Chart - Rev B.xlsx
+++ b/Gantt Chart - Rev B.xlsx
@@ -409,7 +409,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA495766-DADD-4173-8DD0-E98F0ACD98A4}" type="CELLRANGE">
+                    <a:fld id="{FE49B33E-D281-44BF-839F-DAFDBAD49F8C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -464,7 +464,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{D1CB4472-2A92-47CE-8D38-D134045DD221}" type="CELLRANGE">
+                    <a:fld id="{06D7C82A-CAD5-4C7D-8953-05D578A521DE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1600"/>
@@ -541,7 +541,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A32DAAE-7059-45CE-B1F4-560CB53AD1F8}" type="CELLRANGE">
+                    <a:fld id="{B09A610B-6931-46F9-BF28-4E41D50B51D1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -581,7 +581,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4712F9AC-FDE6-40ED-AF36-36929A983D3F}" type="CELLRANGE">
+                    <a:fld id="{9E0AEFF2-22B9-4F48-9FC8-F0D3AA8B53A1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -621,7 +621,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE77C20D-1955-4360-A271-A42D59568DD0}" type="CELLRANGE">
+                    <a:fld id="{314AE5C7-3A6E-4362-A76A-D627A2FF60DD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -661,7 +661,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C8C707E4-F09B-4CCB-B2E7-CA00280233EF}" type="CELLRANGE">
+                    <a:fld id="{3898019B-AF34-4C42-B7DE-83C7C2C05D53}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -701,7 +701,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BB374179-8825-448C-898B-A40D695BF38F}" type="CELLRANGE">
+                    <a:fld id="{78A443D1-DD73-4C98-99E0-DBB6D47CFDA2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -741,7 +741,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{24884AEE-A738-4405-BC3C-C1E21D6D4BC6}" type="CELLRANGE">
+                    <a:fld id="{55451D0A-F66F-48EA-9B37-12DFD9D47F86}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -781,7 +781,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{891139A7-BFBF-40A6-9E76-D7FD35234B92}" type="CELLRANGE">
+                    <a:fld id="{DE07B0FC-C579-48C1-AC8E-0FB7C3A8EDEF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -821,7 +821,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{701D4E13-BE84-4C13-8DBF-4228214A3FDB}" type="CELLRANGE">
+                    <a:fld id="{8EC2CD4A-3F82-42AD-AD6E-9EDAB6BFF4F9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -861,7 +861,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A33980D2-F8AD-4937-909C-10FCEDA06ED5}" type="CELLRANGE">
+                    <a:fld id="{0E37AEA9-B7F0-4929-97CA-DDC197430426}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -901,7 +901,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D388F3F2-7E7C-414E-A3EB-2CF800ACF8AB}" type="CELLRANGE">
+                    <a:fld id="{B6EBFE84-B54D-4319-A9BF-00D3E481D2C6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -941,7 +941,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5E0817F6-3A34-41BB-BA7D-AC084E0B83E7}" type="CELLRANGE">
+                    <a:fld id="{3766BF28-C078-415E-8004-1600407C93DC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -981,7 +981,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{82AFA586-9178-4DA4-B2CC-8DE1FA171E43}" type="CELLRANGE">
+                    <a:fld id="{836F734C-8D6C-4E13-923E-3B99FD2AD8FB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1021,7 +1021,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5717B1CB-58DD-4FD9-9568-348C41FF9D53}" type="CELLRANGE">
+                    <a:fld id="{4ACC82E1-8C7A-4C21-BFD3-BE22B35B1166}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1061,7 +1061,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DB614DEA-AA77-44B3-90C3-4FAAFD8CD611}" type="CELLRANGE">
+                    <a:fld id="{4E96CC48-DF91-41A3-A5FF-D9C2FC951776}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1083,6 +1083,9 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-33FE-43D3-8B6E-124E6A6A1697}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1098,7 +1101,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C3405367-7AE8-49B4-8FF3-4F235214824A}" type="CELLRANGE">
+                    <a:fld id="{F482C8E9-B64B-49EC-B277-84E8A65C8F0F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1120,6 +1123,9 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-33FE-43D3-8B6E-124E6A6A1697}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1135,7 +1141,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{00A3D934-696C-4E3D-B3BE-D2C45DEDC584}" type="CELLRANGE">
+                    <a:fld id="{170CBACE-2BA1-4F8B-BF51-B58403D0A27B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1157,6 +1163,9 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-33FE-43D3-8B6E-124E6A6A1697}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1172,7 +1181,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{459A2EBE-C319-4D96-B19E-5BCD32BFC10A}" type="CELLRANGE">
+                    <a:fld id="{9AA96FDB-FF01-4D25-844B-7CD1F122411E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1194,11 +1203,13 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-33FE-43D3-8B6E-124E6A6A1697}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="19"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1216,10 +1227,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-B1DE-4D49-9049-D6D44E4514B8}"/>
                 </c:ext>
@@ -1265,7 +1273,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1361,28 +1368,28 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.4</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.70000000000000007</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>5.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>5.25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -1427,28 +1434,28 @@
                     <c:v>100%</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>95%</c:v>
+                    <c:v>100%</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>10%</c:v>
+                    <c:v>100%</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0%</c:v>
+                    <c:v>50%</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>0%</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0%</c:v>
+                    <c:v>75%</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0%</c:v>
+                    <c:v>75%</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0%</c:v>
+                    <c:v>80%</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0%</c:v>
+                    <c:v>100%</c:v>
                   </c:pt>
                   <c:pt idx="14">
                     <c:v>0%</c:v>
@@ -1587,28 +1594,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6000000000000014</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21</c:v>
+                  <c:v>4.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>28</c:v>
@@ -2647,8 +2654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2874,19 +2881,19 @@
         <v>43500</v>
       </c>
       <c r="E9" s="1">
-        <f>D9-C9</f>
+        <f t="shared" ref="E9:E21" si="3">D9-C9</f>
         <v>52</v>
       </c>
       <c r="F9" s="3">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <f>E9*F9</f>
-        <v>49.4</v>
+        <f t="shared" ref="G9:G21" si="4">E9*F9</f>
+        <v>52</v>
       </c>
       <c r="H9">
-        <f>E9-G9</f>
-        <v>2.6000000000000014</v>
+        <f t="shared" ref="H9:H21" si="5">E9-G9</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2903,19 +2910,19 @@
         <v>43507</v>
       </c>
       <c r="E10" s="1">
-        <f>D10-C10</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="F10" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <f>E10*F10</f>
-        <v>0.70000000000000007</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="H10">
-        <f>E10-G10</f>
-        <v>6.3</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2932,19 +2939,19 @@
         <v>43514</v>
       </c>
       <c r="E11" s="1">
-        <f>D11-C11</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="F11" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <f>E11*F11</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3.5</v>
       </c>
       <c r="H11">
-        <f>E11-G11</f>
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>3.5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2961,18 +2968,18 @@
         <v>43521</v>
       </c>
       <c r="E12" s="1">
-        <f>D12-C12</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
       <c r="G12">
-        <f>E12*F12</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>E12-G12</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
@@ -2990,19 +2997,19 @@
         <v>43521</v>
       </c>
       <c r="E13" s="1">
-        <f>D13-C13</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G13">
-        <f>E13*F13</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>5.25</v>
       </c>
       <c r="H13">
-        <f>E13-G13</f>
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>1.75</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -3019,19 +3026,19 @@
         <v>43521</v>
       </c>
       <c r="E14" s="1">
-        <f>D14-C14</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G14">
-        <f>E14*F14</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>5.25</v>
       </c>
       <c r="H14">
-        <f>E14-G14</f>
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>1.75</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -3048,19 +3055,19 @@
         <v>43542</v>
       </c>
       <c r="E15" s="1">
-        <f>D15-C15</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G15">
-        <f>E15*F15</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>16.8</v>
       </c>
       <c r="H15">
-        <f>E15-G15</f>
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>4.1999999999999993</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -3077,19 +3084,19 @@
         <v>43556</v>
       </c>
       <c r="E16" s="1">
-        <f>D16-C16</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="5"/>
         <v>0</v>
-      </c>
-      <c r="G16">
-        <f>E16*F16</f>
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <f>E16-G16</f>
-        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -3106,18 +3113,18 @@
         <v>43525</v>
       </c>
       <c r="E17" s="1">
-        <f>D17-C17</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17">
-        <f>E17*F17</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H17">
-        <f>E17-G17</f>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
     </row>
@@ -3135,18 +3142,18 @@
         <v>43525</v>
       </c>
       <c r="E18" s="1">
-        <f>D18-C18</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18">
-        <f>E18*F18</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H18">
-        <f>E18-G18</f>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
     </row>
@@ -3164,18 +3171,18 @@
         <v>43525</v>
       </c>
       <c r="E19" s="1">
-        <f>D19-C19</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
       </c>
       <c r="G19">
-        <f>E19*F19</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H19">
-        <f>E19-G19</f>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
     </row>
@@ -3193,18 +3200,18 @@
         <v>43563</v>
       </c>
       <c r="E20" s="1">
-        <f>D20-C20</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20">
-        <f>E20*F20</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H20">
-        <f>E20-G20</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
     </row>
@@ -3222,18 +3229,18 @@
         <v>43574</v>
       </c>
       <c r="E21" s="1">
-        <f>D21-C21</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21">
-        <f>E21*F21</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H21">
-        <f>E21-G21</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
